--- a/temp_files/indicadores_por_mes.xlsx
+++ b/temp_files/indicadores_por_mes.xlsx
@@ -8,18 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Indicadores por Mes" sheetId="1" r:id="rId1"/>
-    <sheet name="RESUMEN SEMANAL" sheetId="2" r:id="rId2"/>
-    <sheet name="SUSPENDIDAS" sheetId="3" r:id="rId3"/>
-    <sheet name="ESTATUS DE ATENCION" sheetId="4" r:id="rId4"/>
-    <sheet name="REPORTE TIEMPO DE INSTALACION" sheetId="5" r:id="rId5"/>
-    <sheet name="PROMEDIO DE INSTALACION" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="33">
   <si>
     <t>INDICADORES POR MES</t>
   </si>
@@ -118,21 +113,6 @@
   </si>
   <si>
     <t>ESTATUS</t>
-  </si>
-  <si>
-    <t>RESUMEN SEMANAL</t>
-  </si>
-  <si>
-    <t>SUSPENDIDAS</t>
-  </si>
-  <si>
-    <t>ESTATUS DE ATENCION</t>
-  </si>
-  <si>
-    <t>REPORTE TIEMPO DE INSTALACION</t>
-  </si>
-  <si>
-    <t>PROMEDIO DE INSTALACION</t>
   </si>
 </sst>
 </file>
@@ -860,221 +840,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="lgb.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="381000"/>
-          <a:ext cx="1238250" cy="1200150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="lgb.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="381000"/>
-          <a:ext cx="1238250" cy="1200150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="lgb.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="381000"/>
-          <a:ext cx="1238250" cy="1200150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="lgb.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="381000"/>
-          <a:ext cx="1238250" cy="1200150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="lgb.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="381000"/>
-          <a:ext cx="1238250" cy="1200150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2367,99 +2132,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>